--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value211.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value211.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.590203104842699</v>
+        <v>1.567170977592468</v>
       </c>
       <c r="B1">
-        <v>1.992014970989198</v>
+        <v>3.672008514404297</v>
       </c>
       <c r="C1">
-        <v>1.94670045395902</v>
+        <v>5.553871154785156</v>
       </c>
       <c r="D1">
-        <v>2.153981063377389</v>
+        <v>1.376509070396423</v>
       </c>
       <c r="E1">
-        <v>0.543460067901898</v>
+        <v>0.8022044897079468</v>
       </c>
     </row>
   </sheetData>
